--- a/biology/Botanique/Stachys_canescens/Stachys_canescens.xlsx
+++ b/biology/Botanique/Stachys_canescens/Stachys_canescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachys canescens est une espèce de plantes de la famille des Lamiaceae, endémique au sud du Péloponnèse.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Canescens signifie « grisonnant » en latin.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce endémique au sud du Péloponnèse: Magne, Messénie et mont Taygète[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce endémique au sud du Péloponnèse: Magne, Messénie et mont Taygète.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée haute de 15 à 50 cm.
 Fleurs blanches en épi dense sans espace. les bractées sont plus longues que le calice. La lèvre supérieure est entière. Le labelle est blanc avec quatre raies fines violettes
-Feuilles arrondies, légèrement dentées, bosselées[1].
+Feuilles arrondies, légèrement dentées, bosselées.
 			Vue de la plante dans des rochers
 </t>
         </is>
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers calcaires.
 </t>
